--- a/R7祭礼予算・進行表.xlsx
+++ b/R7祭礼予算・進行表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWorks\komatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96366B8C-E02C-45FA-A3BE-E6730330B8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2E03E7-D12B-4F8A-B927-7360976D7E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27540" yWindow="-12348" windowWidth="22584" windowHeight="23436" tabRatio="807" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30216" yWindow="-8508" windowWidth="16248" windowHeight="14676" tabRatio="807" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="①宵宮祭rev.c" sheetId="27" r:id="rId1"/>
@@ -6297,12 +6297,330 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="9" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="29" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="28" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="11" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="11" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6317,324 +6635,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="9" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="29" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="10" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="11" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="11" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -37497,29 +37497,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="36" customHeight="1">
-      <c r="C1" s="354" t="s">
+      <c r="C1" s="459" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="354"/>
+      <c r="D1" s="459"/>
       <c r="E1" s="84"/>
-      <c r="F1" s="354" t="s">
+      <c r="F1" s="459" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="354"/>
-      <c r="I1" s="354" t="s">
+      <c r="G1" s="459"/>
+      <c r="I1" s="459" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="354"/>
+      <c r="J1" s="459"/>
     </row>
     <row r="2" spans="3:10" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
       <c r="E2" s="90"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="89"/>
@@ -37560,7 +37560,7 @@
       <c r="J5" s="90"/>
     </row>
     <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="434"/>
+      <c r="C6" s="427"/>
       <c r="D6" s="90"/>
       <c r="E6" s="88"/>
       <c r="F6" s="96"/>
@@ -37578,8 +37578,8 @@
       <c r="F7" s="98"/>
       <c r="G7" s="101"/>
       <c r="H7" s="88"/>
-      <c r="I7" s="370"/>
-      <c r="J7" s="371"/>
+      <c r="I7" s="363"/>
+      <c r="J7" s="364"/>
     </row>
     <row r="8" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="104" t="s">
@@ -37595,9 +37595,9 @@
       <c r="G8" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="369"/>
-      <c r="I8" s="372"/>
-      <c r="J8" s="373"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="365"/>
+      <c r="J8" s="366"/>
     </row>
     <row r="9" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="111"/>
@@ -37645,31 +37645,31 @@
       <c r="C13" s="111"/>
       <c r="D13" s="112"/>
       <c r="E13" s="88"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="371"/>
-      <c r="H13" s="371"/>
-      <c r="I13" s="370"/>
-      <c r="J13" s="371"/>
+      <c r="F13" s="363"/>
+      <c r="G13" s="364"/>
+      <c r="H13" s="364"/>
+      <c r="I13" s="363"/>
+      <c r="J13" s="364"/>
     </row>
     <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="442"/>
-      <c r="D14" s="443"/>
+      <c r="C14" s="435"/>
+      <c r="D14" s="436"/>
       <c r="E14" s="88"/>
-      <c r="F14" s="370"/>
-      <c r="G14" s="371"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="370"/>
-      <c r="J14" s="371"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="364"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="363"/>
+      <c r="J14" s="364"/>
     </row>
     <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="339"/>
       <c r="D15" s="120"/>
       <c r="E15" s="88"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="371"/>
-      <c r="H15" s="371"/>
-      <c r="I15" s="440"/>
-      <c r="J15" s="441"/>
+      <c r="F15" s="375"/>
+      <c r="G15" s="364"/>
+      <c r="H15" s="364"/>
+      <c r="I15" s="433"/>
+      <c r="J15" s="434"/>
     </row>
     <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="122"/>
@@ -37694,18 +37694,18 @@
       <c r="J17" s="90"/>
     </row>
     <row r="18" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C18" s="444" t="s">
+      <c r="C18" s="437" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="445" t="s">
+      <c r="D18" s="438" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="441"/>
-      <c r="F18" s="446"/>
-      <c r="G18" s="447"/>
-      <c r="H18" s="441"/>
-      <c r="I18" s="440"/>
-      <c r="J18" s="441"/>
+      <c r="E18" s="434"/>
+      <c r="F18" s="439"/>
+      <c r="G18" s="440"/>
+      <c r="H18" s="434"/>
+      <c r="I18" s="433"/>
+      <c r="J18" s="434"/>
     </row>
     <row r="19" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="111"/>
@@ -37714,19 +37714,19 @@
       <c r="F19" s="106"/>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
-      <c r="I19" s="448"/>
-      <c r="J19" s="449"/>
+      <c r="I19" s="441"/>
+      <c r="J19" s="442"/>
     </row>
     <row r="20" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="111"/>
       <c r="D20" s="112"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="360"/>
-      <c r="G20" s="361" t="s">
+      <c r="F20" s="353"/>
+      <c r="G20" s="354" t="s">
         <v>311</v>
       </c>
       <c r="H20" s="133"/>
-      <c r="I20" s="450"/>
+      <c r="I20" s="443"/>
       <c r="J20" s="133"/>
     </row>
     <row r="21" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -37736,28 +37736,28 @@
       </c>
       <c r="E21" s="88"/>
       <c r="F21" s="137"/>
-      <c r="G21" s="362"/>
+      <c r="G21" s="355"/>
       <c r="H21" s="114"/>
       <c r="I21" s="94"/>
       <c r="J21" s="95"/>
     </row>
     <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C22" s="385" t="s">
+      <c r="C22" s="378" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="386" t="s">
+      <c r="D22" s="379" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="371"/>
-      <c r="F22" s="385" t="s">
+      <c r="E22" s="364"/>
+      <c r="F22" s="378" t="s">
         <v>246</v>
       </c>
-      <c r="G22" s="387" t="s">
+      <c r="G22" s="380" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="375"/>
-      <c r="I22" s="375"/>
-      <c r="J22" s="375"/>
+      <c r="H22" s="368"/>
+      <c r="I22" s="368"/>
+      <c r="J22" s="368"/>
     </row>
     <row r="23" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="150" t="s">
@@ -37770,11 +37770,11 @@
       <c r="F23" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="G23" s="363" t="s">
+      <c r="G23" s="356" t="s">
         <v>205</v>
       </c>
       <c r="H23" s="142"/>
-      <c r="I23" s="367"/>
+      <c r="I23" s="360"/>
       <c r="J23" s="142"/>
     </row>
     <row r="24" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -37784,11 +37784,11 @@
       <c r="F24" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="G24" s="363" t="s">
+      <c r="G24" s="356" t="s">
         <v>206</v>
       </c>
       <c r="H24" s="144"/>
-      <c r="I24" s="376"/>
+      <c r="I24" s="369"/>
       <c r="J24" s="136" t="s">
         <v>329</v>
       </c>
@@ -37800,30 +37800,30 @@
       <c r="F25" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="G25" s="363" t="s">
+      <c r="G25" s="356" t="s">
         <v>207</v>
       </c>
       <c r="H25" s="114"/>
       <c r="I25" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="J25" s="363" t="s">
+      <c r="J25" s="356" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="390"/>
-      <c r="D26" s="391"/>
-      <c r="E26" s="371"/>
-      <c r="F26" s="385" t="s">
+      <c r="C26" s="383"/>
+      <c r="D26" s="384"/>
+      <c r="E26" s="364"/>
+      <c r="F26" s="378" t="s">
         <v>246</v>
       </c>
-      <c r="G26" s="387" t="s">
+      <c r="G26" s="380" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="375"/>
-      <c r="I26" s="392"/>
-      <c r="J26" s="392" t="s">
+      <c r="H26" s="368"/>
+      <c r="I26" s="385"/>
+      <c r="J26" s="385" t="s">
         <v>327</v>
       </c>
     </row>
@@ -37838,11 +37838,11 @@
       <c r="F27" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="G27" s="388" t="s">
+      <c r="G27" s="381" t="s">
         <v>285</v>
       </c>
       <c r="H27" s="88"/>
-      <c r="I27" s="389"/>
+      <c r="I27" s="382"/>
       <c r="J27" s="176" t="s">
         <v>328</v>
       </c>
@@ -37851,12 +37851,12 @@
       <c r="C28" s="143"/>
       <c r="D28" s="138"/>
       <c r="E28" s="88"/>
-      <c r="F28" s="364"/>
-      <c r="G28" s="462" t="s">
+      <c r="F28" s="357"/>
+      <c r="G28" s="455" t="s">
         <v>345</v>
       </c>
       <c r="H28" s="88"/>
-      <c r="I28" s="368"/>
+      <c r="I28" s="361"/>
       <c r="J28" s="152" t="s">
         <v>312</v>
       </c>
@@ -37865,10 +37865,10 @@
       <c r="C29" s="155"/>
       <c r="D29" s="156"/>
       <c r="E29" s="88"/>
-      <c r="F29" s="365" t="s">
+      <c r="F29" s="358" t="s">
         <v>254</v>
       </c>
-      <c r="G29" s="366" t="s">
+      <c r="G29" s="359" t="s">
         <v>209</v>
       </c>
       <c r="H29" s="88"/>
@@ -37912,18 +37912,18 @@
       </c>
     </row>
     <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C32" s="385" t="s">
+      <c r="C32" s="378" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="392" t="s">
+      <c r="D32" s="385" t="s">
         <v>332</v>
       </c>
-      <c r="E32" s="371"/>
-      <c r="F32" s="383"/>
-      <c r="G32" s="384"/>
-      <c r="H32" s="384"/>
-      <c r="I32" s="394"/>
-      <c r="J32" s="395" t="s">
+      <c r="E32" s="364"/>
+      <c r="F32" s="376"/>
+      <c r="G32" s="377"/>
+      <c r="H32" s="377"/>
+      <c r="I32" s="387"/>
+      <c r="J32" s="388" t="s">
         <v>191</v>
       </c>
     </row>
@@ -37938,7 +37938,7 @@
       <c r="F33" s="94"/>
       <c r="G33" s="166"/>
       <c r="H33" s="132"/>
-      <c r="I33" s="393"/>
+      <c r="I33" s="386"/>
       <c r="J33" s="157" t="s">
         <v>331</v>
       </c>
@@ -37954,7 +37954,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="166"/>
       <c r="H34" s="132"/>
-      <c r="I34" s="381" t="s">
+      <c r="I34" s="374" t="s">
         <v>254</v>
       </c>
       <c r="J34" s="168" t="s">
@@ -37992,17 +37992,17 @@
       <c r="J36" s="88"/>
     </row>
     <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C37" s="385" t="s">
+      <c r="C37" s="378" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="392" t="s">
+      <c r="D37" s="385" t="s">
         <v>213</v>
       </c>
       <c r="E37" s="88"/>
-      <c r="F37" s="405" t="s">
+      <c r="F37" s="398" t="s">
         <v>247</v>
       </c>
-      <c r="G37" s="397" t="s">
+      <c r="G37" s="390" t="s">
         <v>219</v>
       </c>
       <c r="H37" s="88"/>
@@ -38017,7 +38017,7 @@
         <v>116</v>
       </c>
       <c r="E38" s="88"/>
-      <c r="F38" s="380" t="s">
+      <c r="F38" s="373" t="s">
         <v>244</v>
       </c>
       <c r="G38" s="185" t="s">
@@ -38043,7 +38043,7 @@
       </c>
       <c r="H39" s="93"/>
       <c r="I39" s="178"/>
-      <c r="J39" s="460" t="s">
+      <c r="J39" s="453" t="s">
         <v>344</v>
       </c>
     </row>
@@ -38067,8 +38067,8 @@
       <c r="C41" s="180"/>
       <c r="D41" s="95"/>
       <c r="E41" s="88"/>
-      <c r="F41" s="378"/>
-      <c r="G41" s="379"/>
+      <c r="F41" s="371"/>
+      <c r="G41" s="372"/>
       <c r="H41" s="142"/>
       <c r="I41" s="187"/>
       <c r="J41" s="179"/>
@@ -38077,8 +38077,8 @@
       <c r="C42" s="180"/>
       <c r="D42" s="95"/>
       <c r="E42" s="88"/>
-      <c r="F42" s="378"/>
-      <c r="G42" s="379"/>
+      <c r="F42" s="371"/>
+      <c r="G42" s="372"/>
       <c r="H42" s="132"/>
       <c r="I42" s="179"/>
       <c r="J42" s="188"/>
@@ -38087,25 +38087,25 @@
       <c r="C43" s="94"/>
       <c r="D43" s="90"/>
       <c r="E43" s="88"/>
-      <c r="F43" s="378"/>
-      <c r="G43" s="379"/>
+      <c r="F43" s="371"/>
+      <c r="G43" s="372"/>
       <c r="H43" s="142"/>
       <c r="I43" s="179"/>
       <c r="J43" s="183"/>
     </row>
     <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C44" s="370"/>
-      <c r="D44" s="371"/>
-      <c r="E44" s="371"/>
-      <c r="F44" s="396" t="s">
+      <c r="C44" s="363"/>
+      <c r="D44" s="364"/>
+      <c r="E44" s="364"/>
+      <c r="F44" s="389" t="s">
         <v>258</v>
       </c>
-      <c r="G44" s="397" t="s">
+      <c r="G44" s="390" t="s">
         <v>218</v>
       </c>
-      <c r="H44" s="371"/>
-      <c r="I44" s="398"/>
-      <c r="J44" s="399"/>
+      <c r="H44" s="364"/>
+      <c r="I44" s="391"/>
+      <c r="J44" s="392"/>
     </row>
     <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C45" s="89"/>
@@ -38160,14 +38160,14 @@
       <c r="J48" s="199"/>
     </row>
     <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C49" s="370"/>
-      <c r="D49" s="371"/>
-      <c r="E49" s="371"/>
-      <c r="F49" s="398"/>
-      <c r="G49" s="399"/>
-      <c r="H49" s="400"/>
-      <c r="I49" s="401"/>
-      <c r="J49" s="402"/>
+      <c r="C49" s="363"/>
+      <c r="D49" s="364"/>
+      <c r="E49" s="364"/>
+      <c r="F49" s="391"/>
+      <c r="G49" s="392"/>
+      <c r="H49" s="393"/>
+      <c r="I49" s="394"/>
+      <c r="J49" s="395"/>
     </row>
     <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="89"/>
@@ -38224,16 +38224,16 @@
       <c r="J53" s="212"/>
     </row>
     <row r="54" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C54" s="370"/>
-      <c r="D54" s="371"/>
+      <c r="C54" s="363"/>
+      <c r="D54" s="364"/>
       <c r="E54" s="132"/>
       <c r="F54" s="213"/>
       <c r="G54" s="206" t="s">
         <v>229</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="398"/>
-      <c r="J54" s="399"/>
+      <c r="I54" s="391"/>
+      <c r="J54" s="392"/>
     </row>
     <row r="55" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C55" s="89"/>
@@ -38252,27 +38252,27 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C56" s="370"/>
-      <c r="D56" s="371"/>
-      <c r="E56" s="371"/>
-      <c r="F56" s="405" t="s">
+      <c r="C56" s="363"/>
+      <c r="D56" s="364"/>
+      <c r="E56" s="364"/>
+      <c r="F56" s="398" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="465" t="s">
+      <c r="G56" s="458" t="s">
         <v>199</v>
       </c>
-      <c r="H56" s="371"/>
-      <c r="I56" s="406"/>
-      <c r="J56" s="371"/>
+      <c r="H56" s="364"/>
+      <c r="I56" s="399"/>
+      <c r="J56" s="364"/>
     </row>
     <row r="57" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="89"/>
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
-      <c r="F57" s="403" t="s">
+      <c r="F57" s="396" t="s">
         <v>244</v>
       </c>
-      <c r="G57" s="404" t="s">
+      <c r="G57" s="397" t="s">
         <v>104</v>
       </c>
       <c r="H57" s="88"/>
@@ -38344,7 +38344,7 @@
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="1.1417322834645669" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"BIZ UDP明朝 Medium,太字"&amp;22 令和７年　&amp;C&amp;"BIZ UDP明朝 Medium,太字"&amp;22 &amp;U7月１９日（土） （宵宮祭）　＜駒寄＞ 進行表&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;"BIZ UDP明朝 Medium,太字"&amp;22 令和７年　&amp;C&amp;"BIZ UDP明朝 Medium,太字"&amp;22 &amp;U7月１９日（土） （宵宮祭）　＜駒寄＞ 進行表&amp;RRev.C</oddHeader>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="I25:I38 F3:F57 C8:C39 I43:I55" numberStoredAsText="1"/>
@@ -38382,18 +38382,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="33.6" customHeight="1">
-      <c r="C1" s="354" t="s">
+      <c r="C1" s="459" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="354"/>
-      <c r="F1" s="354" t="s">
+      <c r="D1" s="459"/>
+      <c r="F1" s="459" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="354"/>
-      <c r="I1" s="354" t="s">
+      <c r="G1" s="459"/>
+      <c r="I1" s="459" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="354"/>
+      <c r="J1" s="459"/>
     </row>
     <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C2" s="225"/>
@@ -38452,16 +38452,16 @@
       <c r="J6" s="90"/>
     </row>
     <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="408"/>
-      <c r="D7" s="409" t="s">
+      <c r="C7" s="401"/>
+      <c r="D7" s="402" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="371"/>
-      <c r="F7" s="410"/>
-      <c r="G7" s="411"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="410"/>
-      <c r="J7" s="371"/>
+      <c r="E7" s="364"/>
+      <c r="F7" s="403"/>
+      <c r="G7" s="404"/>
+      <c r="H7" s="364"/>
+      <c r="I7" s="403"/>
+      <c r="J7" s="364"/>
     </row>
     <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="240" t="s">
@@ -38474,7 +38474,7 @@
       <c r="F8" s="242" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="407" t="s">
+      <c r="G8" s="400" t="s">
         <v>183</v>
       </c>
       <c r="H8" s="108"/>
@@ -38525,20 +38525,20 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1">
-      <c r="C12" s="412" t="s">
+      <c r="C12" s="405" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="413" t="s">
+      <c r="D12" s="406" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="371"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="414"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="415" t="s">
+      <c r="E12" s="364"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="407"/>
+      <c r="H12" s="407"/>
+      <c r="I12" s="408" t="s">
         <v>247</v>
       </c>
-      <c r="J12" s="416" t="s">
+      <c r="J12" s="409" t="s">
         <v>276</v>
       </c>
     </row>
@@ -38593,24 +38593,24 @@
       </c>
     </row>
     <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="412" t="s">
+      <c r="C16" s="405" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="413" t="s">
+      <c r="D16" s="406" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="371"/>
-      <c r="F16" s="414"/>
-      <c r="G16" s="414"/>
-      <c r="H16" s="414"/>
-      <c r="I16" s="417"/>
-      <c r="J16" s="418" t="s">
+      <c r="E16" s="364"/>
+      <c r="F16" s="407"/>
+      <c r="G16" s="407"/>
+      <c r="H16" s="407"/>
+      <c r="I16" s="410"/>
+      <c r="J16" s="411" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C17" s="419"/>
-      <c r="D17" s="420"/>
+      <c r="C17" s="412"/>
+      <c r="D17" s="413"/>
       <c r="E17" s="88"/>
       <c r="F17" s="225"/>
       <c r="G17" s="90"/>
@@ -38679,22 +38679,22 @@
       <c r="J21" s="236"/>
     </row>
     <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C22" s="412" t="s">
+      <c r="C22" s="405" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="422" t="s">
+      <c r="D22" s="415" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="371"/>
-      <c r="F22" s="414"/>
-      <c r="G22" s="414"/>
-      <c r="H22" s="371"/>
-      <c r="I22" s="410"/>
-      <c r="J22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="407"/>
+      <c r="G22" s="407"/>
+      <c r="H22" s="364"/>
+      <c r="I22" s="403"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="240"/>
-      <c r="D23" s="421" t="s">
+      <c r="D23" s="414" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="88"/>
@@ -38751,22 +38751,22 @@
       <c r="J26" s="90"/>
     </row>
     <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="412" t="s">
+      <c r="C27" s="405" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="413" t="s">
+      <c r="D27" s="406" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="371"/>
-      <c r="F27" s="414"/>
-      <c r="G27" s="414"/>
-      <c r="H27" s="371"/>
-      <c r="I27" s="410"/>
-      <c r="J27" s="371"/>
+      <c r="E27" s="364"/>
+      <c r="F27" s="407"/>
+      <c r="G27" s="407"/>
+      <c r="H27" s="364"/>
+      <c r="I27" s="403"/>
+      <c r="J27" s="364"/>
     </row>
     <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="237"/>
-      <c r="D28" s="423" t="s">
+      <c r="D28" s="416" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="268"/>
@@ -38821,16 +38821,16 @@
       </c>
     </row>
     <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C32" s="426"/>
-      <c r="D32" s="386"/>
-      <c r="E32" s="371"/>
-      <c r="F32" s="410"/>
-      <c r="G32" s="371"/>
-      <c r="H32" s="414"/>
-      <c r="I32" s="417" t="s">
+      <c r="C32" s="419"/>
+      <c r="D32" s="379"/>
+      <c r="E32" s="364"/>
+      <c r="F32" s="403"/>
+      <c r="G32" s="364"/>
+      <c r="H32" s="407"/>
+      <c r="I32" s="410" t="s">
         <v>247</v>
       </c>
-      <c r="J32" s="416" t="s">
+      <c r="J32" s="409" t="s">
         <v>276</v>
       </c>
     </row>
@@ -38843,11 +38843,11 @@
       </c>
       <c r="E33" s="88"/>
       <c r="F33" s="299"/>
-      <c r="G33" s="424" t="s">
+      <c r="G33" s="417" t="s">
         <v>340</v>
       </c>
       <c r="H33" s="236"/>
-      <c r="I33" s="425" t="s">
+      <c r="I33" s="418" t="s">
         <v>244</v>
       </c>
       <c r="J33" s="255" t="s">
@@ -38919,20 +38919,20 @@
       </c>
     </row>
     <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C38" s="412" t="s">
+      <c r="C38" s="405" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="413" t="s">
+      <c r="D38" s="406" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="371"/>
-      <c r="F38" s="427"/>
-      <c r="G38" s="428" t="s">
+      <c r="E38" s="364"/>
+      <c r="F38" s="420"/>
+      <c r="G38" s="421" t="s">
         <v>200</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="429"/>
-      <c r="J38" s="430"/>
+      <c r="H38" s="364"/>
+      <c r="I38" s="422"/>
+      <c r="J38" s="423"/>
     </row>
     <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="237"/>
@@ -39005,11 +39005,11 @@
       <c r="L42" s="83"/>
     </row>
     <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C43" s="426"/>
-      <c r="D43" s="386"/>
-      <c r="E43" s="371"/>
-      <c r="F43" s="427"/>
-      <c r="G43" s="431" t="s">
+      <c r="C43" s="419"/>
+      <c r="D43" s="379"/>
+      <c r="E43" s="364"/>
+      <c r="F43" s="420"/>
+      <c r="G43" s="424" t="s">
         <v>238</v>
       </c>
       <c r="H43" s="295"/>
@@ -39050,7 +39050,7 @@
       </c>
       <c r="H45" s="295"/>
       <c r="I45" s="299"/>
-      <c r="J45" s="460" t="s">
+      <c r="J45" s="453" t="s">
         <v>344</v>
       </c>
       <c r="L45" s="83"/>
@@ -39104,8 +39104,8 @@
       <c r="J48" s="306"/>
     </row>
     <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C49" s="432"/>
-      <c r="D49" s="433" t="s">
+      <c r="C49" s="425"/>
+      <c r="D49" s="426" t="s">
         <v>203</v>
       </c>
       <c r="E49" s="268" t="s">
@@ -39122,8 +39122,8 @@
       <c r="J49" s="183"/>
     </row>
     <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C50" s="435"/>
-      <c r="D50" s="436"/>
+      <c r="C50" s="428"/>
+      <c r="D50" s="429"/>
       <c r="E50" s="88"/>
       <c r="F50" s="242" t="s">
         <v>247</v>
@@ -39132,8 +39132,8 @@
         <v>279</v>
       </c>
       <c r="H50" s="88"/>
-      <c r="I50" s="439"/>
-      <c r="J50" s="428"/>
+      <c r="I50" s="432"/>
+      <c r="J50" s="421"/>
     </row>
     <row r="51" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="225"/>
@@ -39146,8 +39146,8 @@
         <v>112</v>
       </c>
       <c r="H51" s="316"/>
-      <c r="I51" s="463"/>
-      <c r="J51" s="464"/>
+      <c r="I51" s="456"/>
+      <c r="J51" s="457"/>
     </row>
     <row r="52" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="225"/>
@@ -39163,7 +39163,7 @@
       <c r="I52" s="319" t="s">
         <v>120</v>
       </c>
-      <c r="J52" s="459" t="s">
+      <c r="J52" s="452" t="s">
         <v>113</v>
       </c>
     </row>
@@ -39171,23 +39171,23 @@
       <c r="C53" s="225"/>
       <c r="D53" s="90"/>
       <c r="E53" s="183"/>
-      <c r="F53" s="377" t="s">
+      <c r="F53" s="370" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="451"/>
+      <c r="G53" s="444"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="461"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="90"/>
     </row>
     <row r="54" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C54" s="410"/>
-      <c r="D54" s="371"/>
+      <c r="C54" s="403"/>
+      <c r="D54" s="364"/>
       <c r="E54" s="183"/>
       <c r="F54" s="322"/>
       <c r="G54" s="323"/>
       <c r="H54" s="90"/>
-      <c r="I54" s="410"/>
-      <c r="J54" s="371"/>
+      <c r="I54" s="403"/>
+      <c r="J54" s="364"/>
     </row>
     <row r="55" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C55" s="225"/>
@@ -39218,45 +39218,45 @@
       <c r="J56" s="225"/>
     </row>
     <row r="57" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C57" s="410"/>
-      <c r="D57" s="371"/>
-      <c r="E57" s="371"/>
-      <c r="F57" s="452"/>
-      <c r="G57" s="465" t="s">
+      <c r="C57" s="403"/>
+      <c r="D57" s="364"/>
+      <c r="E57" s="364"/>
+      <c r="F57" s="445"/>
+      <c r="G57" s="458" t="s">
         <v>199</v>
       </c>
-      <c r="H57" s="453"/>
-      <c r="I57" s="410"/>
-      <c r="J57" s="410"/>
+      <c r="H57" s="446"/>
+      <c r="I57" s="403"/>
+      <c r="J57" s="403"/>
     </row>
     <row r="58" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C58" s="454"/>
-      <c r="D58" s="374"/>
-      <c r="E58" s="374"/>
-      <c r="F58" s="455"/>
-      <c r="G58" s="456"/>
-      <c r="H58" s="374"/>
-      <c r="I58" s="454"/>
-      <c r="J58" s="374"/>
+      <c r="C58" s="447"/>
+      <c r="D58" s="367"/>
+      <c r="E58" s="367"/>
+      <c r="F58" s="448"/>
+      <c r="G58" s="449"/>
+      <c r="H58" s="367"/>
+      <c r="I58" s="447"/>
+      <c r="J58" s="367"/>
     </row>
     <row r="59" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C59" s="410"/>
-      <c r="D59" s="371"/>
-      <c r="E59" s="371"/>
-      <c r="F59" s="457"/>
-      <c r="G59" s="458"/>
-      <c r="H59" s="375"/>
-      <c r="I59" s="410"/>
-      <c r="J59" s="371"/>
+      <c r="C59" s="403"/>
+      <c r="D59" s="364"/>
+      <c r="E59" s="364"/>
+      <c r="F59" s="450"/>
+      <c r="G59" s="451"/>
+      <c r="H59" s="368"/>
+      <c r="I59" s="403"/>
+      <c r="J59" s="364"/>
     </row>
     <row r="60" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="225"/>
       <c r="D60" s="90"/>
       <c r="E60" s="88"/>
-      <c r="F60" s="437" t="s">
+      <c r="F60" s="430" t="s">
         <v>244</v>
       </c>
-      <c r="G60" s="438" t="s">
+      <c r="G60" s="431" t="s">
         <v>104</v>
       </c>
       <c r="H60" s="88"/>
@@ -39293,9 +39293,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="1.1417322834645669" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"BIZ UDP明朝 Medium,太字"&amp;22 令和７年　&amp;C&amp;"BIZ UDP明朝 Medium,太字"&amp;22 &amp;U7月2０日（日） （本祭）　＜駒寄＞ 進行表&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;"BIZ UDP明朝 Medium,太字"&amp;22 令和７年　&amp;C&amp;"BIZ UDP明朝 Medium,太字"&amp;22 &amp;U7月2０日（日） （本祭）　＜駒寄＞ 進行表&amp;RRev.C</oddHeader>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="C8:C48 F3:F60 I12:I52" numberStoredAsText="1"/>
@@ -39333,29 +39333,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="36" customHeight="1">
-      <c r="C1" s="354" t="s">
+      <c r="C1" s="459" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="354"/>
+      <c r="D1" s="459"/>
       <c r="E1" s="84"/>
-      <c r="F1" s="354" t="s">
+      <c r="F1" s="459" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="354"/>
-      <c r="I1" s="354" t="s">
+      <c r="G1" s="459"/>
+      <c r="I1" s="459" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="354"/>
+      <c r="J1" s="459"/>
     </row>
     <row r="2" spans="3:10" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
       <c r="E2" s="90"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="89"/>
@@ -40226,18 +40226,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="33.6" customHeight="1">
-      <c r="C1" s="354" t="s">
+      <c r="C1" s="459" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="354"/>
-      <c r="F1" s="354" t="s">
+      <c r="D1" s="459"/>
+      <c r="F1" s="459" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="354"/>
-      <c r="I1" s="354" t="s">
+      <c r="G1" s="459"/>
+      <c r="I1" s="459" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="354"/>
+      <c r="J1" s="459"/>
     </row>
     <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C2" s="225"/>
@@ -41179,14 +41179,14 @@
       <c r="B2" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="355" t="s">
+      <c r="C2" s="461" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="356"/>
-      <c r="E2" s="355" t="s">
+      <c r="D2" s="462"/>
+      <c r="E2" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="356"/>
+      <c r="F2" s="462"/>
       <c r="G2" s="73" t="s">
         <v>141</v>
       </c>
@@ -41760,10 +41760,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="35.1" customHeight="1">
-      <c r="B3" s="357" t="s">
+      <c r="B3" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="358">
+      <c r="C3" s="464">
         <f>SUM(F4:R4)</f>
         <v>1648821</v>
       </c>
@@ -41785,8 +41785,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="19" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B4" s="357"/>
-      <c r="C4" s="358"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="464"/>
       <c r="F4" s="20">
         <v>856821</v>
       </c>
@@ -41816,10 +41816,10 @@
       <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1">
-      <c r="B6" s="359" t="s">
+      <c r="B6" s="465" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="358">
+      <c r="C6" s="464">
         <f>SUM(F7:R7)</f>
         <v>1841452</v>
       </c>
@@ -41844,8 +41844,8 @@
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="359"/>
-      <c r="C7" s="358"/>
+      <c r="B7" s="465"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="19"/>
       <c r="F7" s="20">
         <f>F4</f>
